--- a/biology/Botanique/Orientation_bibliographique_en_botanique_européenne_et_méditerranéenne/Orientation_bibliographique_en_botanique_européenne_et_méditerranéenne.xlsx
+++ b/biology/Botanique/Orientation_bibliographique_en_botanique_européenne_et_méditerranéenne/Orientation_bibliographique_en_botanique_européenne_et_méditerranéenne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Orientation_bibliographique_en_botanique_europ%C3%A9enne_et_m%C3%A9diterran%C3%A9enne</t>
+          <t>Orientation_bibliographique_en_botanique_européenne_et_méditerranéenne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente une liste non-exhaustive de références relatives à la botanique européenne et méditerranéenne via une liste d'ouvrages, de publications ou de sites Web reconnus par la communauté scientifique comme incontournables ou majeurs, qu'ils soient généraux ou plus ciblés. 
 Autres pages bibliographiques concernant la botanique : Taxonomie • Biogéographie • Origine et évolution du vivant
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Orientation_bibliographique_en_botanique_europ%C3%A9enne_et_m%C3%A9diterran%C3%A9enne</t>
+          <t>Orientation_bibliographique_en_botanique_européenne_et_méditerranéenne</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Ouvrages pour néophytes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>La flore d'Europe occidentale, Marjorie Blamey, Christopher Grey-Wilson, 24/06/2003, Flammarion -  (ISBN 2-08-200995-5)
 Flore portant sur les plantes vasculaires d'Europe occidentale (non méditerranéennes) d'accès très facile aux illustrations fidèles très fournies
@@ -533,7 +547,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Orientation_bibliographique_en_botanique_europ%C3%A9enne_et_m%C3%A9diterran%C3%A9enne</t>
+          <t>Orientation_bibliographique_en_botanique_européenne_et_méditerranéenne</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,7 +565,9 @@
           <t>Ouvrages généraux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Pour en voir plus : aller par ici et par là
 La botanique redécouverte, Aline Raynal-Roques, 11/09/1997, Belin -  (ISBN 2-7011-1610-4)
@@ -568,7 +584,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Orientation_bibliographique_en_botanique_europ%C3%A9enne_et_m%C3%A9diterran%C3%A9enne</t>
+          <t>Orientation_bibliographique_en_botanique_européenne_et_méditerranéenne</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -586,7 +602,9 @@
           <t>En Europe (hors Méditerranée)</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Flora Europaea : Psilotaceae to Plataceae, vol 1, 2, 3 et 4 TUTIN (T. G. ) ; et al. 1968 - 1993, en Anglais ; Cambridge University Press, Cambridge.
 Flora Europaea constitue actuellement la référence européenne en botanique, et tout particulièrement dans les domaines de la nomenclature et de la systématique. Ce travail collectif a fait appel à des botanistes de tous les pays d'Europe. Il en résulte non seulement une synthèse, mais aussi une révision remarquable des connaissances de la flore vasculaire européenne.
@@ -611,9 +629,43 @@
 Susswasserflore von mittleleuropa, Gustav Fischer Verlag, Ed : A Pascher
 Flore d'eau douce de l'Europe, une série de clefs d'identification, sur 24 volumes. Chaque volume contient des figures/tables et avec le texte en allemand.
 Détermination des ligneux en hiver. Avec 1450 aquarelles, Bernd Schulz, 09/11/1999, Ulmer -  (ISBN 2-84138-098-X)
-Ouvrage complet riche en illustrations portant sur les bourgeons latents des ligneux d'Europe occidentale. La référence dans le domaine.
-En Suisse
-Clé d'identification illustrée des plantes sauvages de nos régions. Suisse Normande et zones limitrophes de la plaine à l'étage alpin, Jeanne Covillot, 12/2007
+Ouvrage complet riche en illustrations portant sur les bourgeons latents des ligneux d'Europe occidentale. La référence dans le domaine.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Orientation_bibliographique_en_botanique_européenne_et_méditerranéenne</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Orientation_bibliographique_en_botanique_europ%C3%A9enne_et_m%C3%A9diterran%C3%A9enne</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>En Europe (hors Méditerranée)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>En Suisse</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Clé d'identification illustrée des plantes sauvages de nos régions. Suisse Normande et zones limitrophes de la plaine à l'étage alpin, Jeanne Covillot, 12/2007
 Clé d'identification facile d'accès : fonctionne sur les Alpes et l'Est de la France (Édition personnelle contacter directement l'auteure : Jeanne Covillot - 2, Chemin de la Fontaine - 1224 Chêne-Bougeries - Suisse)
 Flore de la Suisse et des territoires limitrophes - Le nouveau binz, 3e édition, David Aeschimann, 01/01/2005, Haupt (Paul),  (ISBN 3-258-06946-8)
 Fonctionne sur les Alpes et l'Est de la France. Son format de poche la rend très pratique pour l'emmener sur le terrain. Elle est complétée par un livre comprenant les dessins au trait des espèces décrites.
@@ -623,14 +675,82 @@
 Ce livre permet la détermination des espèces végétales de Suisse sur la base des caractères végétatifs.
 Sites internets
 Flore de la Suisse
-Flore du Jura suisse
-En Belgique
-Nouvelle flore de la Belgique, du Grand-Duché de Luxembourg, du Nord de la France et des régions voisines 5e édition, Jacques Lambinon, Léon Delvosalle, Jacques Duvigneaud, Collectif, 01/01/2004, Jardin botanique de Belgique -  (ISBN 90-72619-58-7)
+Flore du Jura suisse</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Orientation_bibliographique_en_botanique_européenne_et_méditerranéenne</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Orientation_bibliographique_en_botanique_europ%C3%A9enne_et_m%C3%A9diterran%C3%A9enne</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>En Europe (hors Méditerranée)</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>En Belgique</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Nouvelle flore de la Belgique, du Grand-Duché de Luxembourg, du Nord de la France et des régions voisines 5e édition, Jacques Lambinon, Léon Delvosalle, Jacques Duvigneaud, Collectif, 01/01/2004, Jardin botanique de Belgique -  (ISBN 90-72619-58-7)
 Cette flore est très bien faite pour les espèces de plaine. On ne l'utilisera pas pour la montagne. Les espèces aquatiques et les plantes des zones humides notamment présentent des clés de déterminations très détaillées.
 Flore de la Belgique (Ptéridophytes et spermatophytes) à l'usage des étudiants de candidature : quatrième édition, C. Evrard, B. Bastin, J. R. De Sloover et al., 1993, Artel s. c., Louvain-la-Neuve.
-Spécialement conçue pour les botanistes débutants ou amateurs, cette flore se caractérise par la simplicité et l'efficacité des clés de détermination. Elle permet d'identifier 1364 espèces, c'est-à-dire la majeure partie de la flore belge, les raretés étant exclues. La description des espèces fait juste 2 ou 3 lignes et ne comporte pas de dessins (hormis quelques croquis) ; ce n'est pas le but de l'ouvrage! Son format de poche est séduisant et invite à herboriser.
-En France
-Flore d'Île-de-France, de très haut niveau scientifique, intégralement et remarquablement illustrée. Orientée sur l'Île-de-France, pertinente pour l'ensemble du Bassin parisien et au-delà. Une référence. 970p, auteurs : Philippe Jauzein et Olivier Nawrot ; Éditions Quaë, 2011.  (ISBN 978-2-7592-0947-7). http://www.quae.com/fr/r1332-flore-d-ile-de-france.html
+Spécialement conçue pour les botanistes débutants ou amateurs, cette flore se caractérise par la simplicité et l'efficacité des clés de détermination. Elle permet d'identifier 1364 espèces, c'est-à-dire la majeure partie de la flore belge, les raretés étant exclues. La description des espèces fait juste 2 ou 3 lignes et ne comporte pas de dessins (hormis quelques croquis) ; ce n'est pas le but de l'ouvrage! Son format de poche est séduisant et invite à herboriser.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Orientation_bibliographique_en_botanique_européenne_et_méditerranéenne</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Orientation_bibliographique_en_botanique_europ%C3%A9enne_et_m%C3%A9diterran%C3%A9enne</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>En Europe (hors Méditerranée)</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>En France</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Flore d'Île-de-France, de très haut niveau scientifique, intégralement et remarquablement illustrée. Orientée sur l'Île-de-France, pertinente pour l'ensemble du Bassin parisien et au-delà. Une référence. 970p, auteurs : Philippe Jauzein et Olivier Nawrot ; Éditions Quaë, 2011.  (ISBN 978-2-7592-0947-7). http://www.quae.com/fr/r1332-flore-d-ile-de-france.html
 Flore descriptive et illustrée de la France, de la Corse et des contrées limitrophes, Tomes 1, 2, 3, Hippolyte Coste, réédition de 01/04/1998, Albert Blanchard  (ISBN 2-85367-058-9)
 Malgré son ancienneté (début du XXe siècle), cette flore offre la possibilité de déterminer facilement et précisément les espèces. Cette flore est encore de référence mais de nouvelles espèces ont été décrites et la nomenclature n'est pas totalement actualisée.
 Suivent 7 suppléments de P. Jovet et R. De Villmorin, 1984, Albert Blanchard, Paris
@@ -651,9 +771,47 @@
 Index synonymique de la Flore de France : sur l'Inra
 Tela botanica
 Inventaire national du patrimoine naturel français
-Liste des espèces végétales protégées en France métropolitaine
-Atlas de France
-Atlas de la Flore de France, Pierre Dupont, 1990, Muséum d'histoire naturelle, Paris 10
+Liste des espèces végétales protégées en France métropolitaine</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Orientation_bibliographique_en_botanique_européenne_et_méditerranéenne</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Orientation_bibliographique_en_botanique_europ%C3%A9enne_et_m%C3%A9diterran%C3%A9enne</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>En Europe (hors Méditerranée)</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>En France</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Atlas de France</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Atlas de la Flore de France, Pierre Dupont, 1990, Muséum d'histoire naturelle, Paris 10
 Flore lyonnaise, Nétien Georges, Éd. Société Linnéenne de Lyon, 1993.
 Complément à la Flore lyonnaise, Nétien Georges, Ed. Société Linnéenne de Lyon, 1996.
 Flore d'Auvergne, Ernest Grenier, 1992, Société Linnéenne de Lyon, Lyon
@@ -698,9 +856,47 @@
 Conservatoire botanique national du bassin parisien
 Protection et répartition des espèces végétales dans le Bassin parisien
 Observatoires de la flore des collectivités territoriales du Bassin parisien
-Conservatoire botanique national méditerranéen de Porquerolles - antenne de Montpellier : espèces patrimoniales observées en Languedoc-Roussillon
-Flores spécialisées
-Classées par domaines
+Conservatoire botanique national méditerranéen de Porquerolles - antenne de Montpellier : espèces patrimoniales observées en Languedoc-Roussillon</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Orientation_bibliographique_en_botanique_européenne_et_méditerranéenne</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Orientation_bibliographique_en_botanique_europ%C3%A9enne_et_m%C3%A9diterran%C3%A9enne</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>En Europe (hors Méditerranée)</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>En France</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Flores spécialisées</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Classées par domaines
 L'encyclopédie des plantes bio-indicatrices alimentaires et médicinales. Guide de diagnostic des sols Volume 1, Gérard Ducerf, 01/12/2005, Promonature -  (ISBN 2951925840)
 Premier tome d'une série annoncée sur les plantes bio-indicatrices accompagné de textes simplifiées et photographies aidant grandement la détermination. La référence dans son domaine.
 Conditions de levée de dormance des principales plantes bioindicatrices, Gérard Ducerf, 04/2006, Promonature,  (ISBN 2-9519258-2-4) (OCLC 708356797)
@@ -731,96 +927,608 @@
 Les monographies de Robert Portal sur les Graminées, en particulier : Festuca du Massif central, Festuca de France, Bromus de France, Eragrostis de France et d'Europe occidentale et Poa de France
 Les clés de déterminations sont très précises, chaque espèce est illustrée par un dessin et une discussion sur le taxon la complète.Édités par l'auteur : Robert Portal 16 rue Louis Brioude F - 43750 Vals-près-le-Puy
 Flore et cartographie des carex de France. 3e édition, Gérard Duhamel, 22/10/2004, Boubée -  (ISBN 2-85004-111-4)
-Flore des graminées de Provence occidentale Bernard Girerd, 1988 ; Société Botanique du Vaucluse, Avignon.
-En Grande-Bretagne
-Colour Identification Guide to the Grasses, Sedges, Rushes and Ferns of the British Isles and North-Western Europe, Francis Rose, Viking Books, 1989  (ISBN 0670806889)
+Flore des graminées de Provence occidentale Bernard Girerd, 1988 ; Société Botanique du Vaucluse, Avignon.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Orientation_bibliographique_en_botanique_européenne_et_méditerranéenne</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Orientation_bibliographique_en_botanique_europ%C3%A9enne_et_m%C3%A9diterran%C3%A9enne</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>En Europe (hors Méditerranée)</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>En Grande-Bretagne</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Colour Identification Guide to the Grasses, Sedges, Rushes and Ferns of the British Isles and North-Western Europe, Francis Rose, Viking Books, 1989  (ISBN 0670806889)
 Identification des Carex, graminées et fougères des Iles britanniques et du Nord-Ouest de l'Europe (en anglais)
 Carex des Îles Britanniques (Sedges of the british isles), A. C. Jermy, A. O. Chater, R. W. David, 1982 ; Bot. Soc. of British Isles, Londres
 Version francophone uniquement sur les Carex des Iles Britanniques
 Atlas of the Bryophytes of Britain and Ireland: Volume 1 (Liverworts) Hepaticeae and Anthocerotae, Volume 2 (Mosses Part 1)
 Sphagnopsida, Andreaeopsida &amp; Bryopsida (excl Diplolepidae), Volume 3 (Mosses Part 2) Diplolepideae  M Hill, Harley Books
 Ce travail, en trois volumes, est le résultat d'une enquête systématique fondée en 1960. Chaque volume propose des cartes de distribution, des notes sur l'habitat et la distribution comparative internationale.
-Flore des lichens de France et de Grande-Bretagne, Guillaumot, Éditions Lechevalier, Paris, 1998
-Aux Pays-Bas
-De Vegetatie van Nederland, JHJ Schaminee, AHF Stortelder and PWFM Hommel Opulus Press (de 1995 à aujourd'hui)
-Nouvelle référence remplaçant le travail  par Westhoff et (1969). Le travail doit paraître dans cinq volumes (4 édités). Il y a une introduction prolongée à phytosociologie moderne et présente une description systématique de toutes les communautés de plante reconnues dans les Pays-Bas. Des tables phytosociologiques complètes et plusieurs spectres (la forme de vie, le type de distribution, etc) sont inclus pour chaque unité syntaxonomicale. Bien qu'écrit en néerlandais, la plupart du livre est accessible via les tables et les illustrations.
-En Finlande
-NaturGate : Site en français présentant près de 400 000 photos de plantes, oiseaux et autres papillons, avec des informations sur leur habitat naturel. Ce site est le résultat d’un travail de 20 ans effectué par deux réalisateurs finlandais et le tout a été validé par des chercheurs de l’Université de Helsinki et le réseau de scientifiques CICERO Learning.
-En République tchèque
-The Flora of the Czech Republic (Kvetena Ceske Republiky) 8 volumes, B Slavik, Academia
-La flore détaillée des plantes vasculaires de la République tchèque, couvrant les plantes indigènes et introduites.
-En Russie
-Flora of Russia, 11 Volume The European Part and Bordering Regions, Taylor &amp; Francis, Ed. NN Tzvelev.
+Flore des lichens de France et de Grande-Bretagne, Guillaumot, Éditions Lechevalier, Paris, 1998</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Orientation_bibliographique_en_botanique_européenne_et_méditerranéenne</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Orientation_bibliographique_en_botanique_europ%C3%A9enne_et_m%C3%A9diterran%C3%A9enne</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>En Europe (hors Méditerranée)</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Aux Pays-Bas</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>De Vegetatie van Nederland, JHJ Schaminee, AHF Stortelder and PWFM Hommel Opulus Press (de 1995 à aujourd'hui)
+Nouvelle référence remplaçant le travail  par Westhoff et (1969). Le travail doit paraître dans cinq volumes (4 édités). Il y a une introduction prolongée à phytosociologie moderne et présente une description systématique de toutes les communautés de plante reconnues dans les Pays-Bas. Des tables phytosociologiques complètes et plusieurs spectres (la forme de vie, le type de distribution, etc) sont inclus pour chaque unité syntaxonomicale. Bien qu'écrit en néerlandais, la plupart du livre est accessible via les tables et les illustrations.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Orientation_bibliographique_en_botanique_européenne_et_méditerranéenne</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Orientation_bibliographique_en_botanique_europ%C3%A9enne_et_m%C3%A9diterran%C3%A9enne</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>En Europe (hors Méditerranée)</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>En Finlande</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>NaturGate : Site en français présentant près de 400 000 photos de plantes, oiseaux et autres papillons, avec des informations sur leur habitat naturel. Ce site est le résultat d’un travail de 20 ans effectué par deux réalisateurs finlandais et le tout a été validé par des chercheurs de l’Université de Helsinki et le réseau de scientifiques CICERO Learning.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Orientation_bibliographique_en_botanique_européenne_et_méditerranéenne</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Orientation_bibliographique_en_botanique_europ%C3%A9enne_et_m%C3%A9diterran%C3%A9enne</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>En Europe (hors Méditerranée)</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>En République tchèque</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>The Flora of the Czech Republic (Kvetena Ceske Republiky) 8 volumes, B Slavik, Academia
+La flore détaillée des plantes vasculaires de la République tchèque, couvrant les plantes indigènes et introduites.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Orientation_bibliographique_en_botanique_européenne_et_méditerranéenne</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Orientation_bibliographique_en_botanique_europ%C3%A9enne_et_m%C3%A9diterran%C3%A9enne</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>En Europe (hors Méditerranée)</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>En Russie</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Flora of Russia, 11 Volume The European Part and Bordering Regions, Taylor &amp; Francis, Ed. NN Tzvelev.
 Cette série de 11 Volumes est une traduction de Flora Evropeiskoi Chasti SSR en anglais. Elle fournit des informations sur les espèces sauvages et cultivées les plus importantes se développant dans la partie européenne de la Russie et ses régions limitrophes. Ce livre aborde leur systématique, leur conditions d'habitat, le nombre de chromosomes...</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Orientation_bibliographique_en_botanique_europ%C3%A9enne_et_m%C3%A9diterran%C3%A9enne</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Orientation_bibliographique_en_botanique_europ%C3%A9enne_et_m%C3%A9diterran%C3%A9enne</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Orientation_bibliographique_en_botanique_européenne_et_méditerranéenne</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Orientation_bibliographique_en_botanique_europ%C3%A9enne_et_m%C3%A9diterran%C3%A9enne</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>En Méditerranée</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plant Evolution in the Mediterranean, JD Thompson, Oxford University Press, 2005,  (ISBN 0198515340)
-OPTIMA (Organisation for the Phyto taxonomic investigation of the mediterranean area)
-En Afrique du Nord
-Flore de l'Afrique du Nord, René Maire (téléchargeable en ligne) œuvre de référence hélas inachevée.
-En Algérie
-Pierre Quézel et Sébastien Santa (préf. Louis Emberger), Nouvelle flore de l’Algérie et des régions désertiques méridionales, Paris, CNRS, 1962-1963, 1170 p. (lire en ligne)
-En Italie
-Flora d'Italia, Sandro Pignatti et al, Bologna, Edagricole, 1982. pag. 216  (ISBN 8850624492)
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Plant Evolution in the Mediterranean, JD Thompson, Oxford University Press, 2005,  (ISBN 0198515340)
+OPTIMA (Organisation for the Phyto taxonomic investigation of the mediterranean area)</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Orientation_bibliographique_en_botanique_européenne_et_méditerranéenne</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Orientation_bibliographique_en_botanique_europ%C3%A9enne_et_m%C3%A9diterran%C3%A9enne</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>En Méditerranée</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>En Afrique du Nord</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Flore de l'Afrique du Nord, René Maire (téléchargeable en ligne) œuvre de référence hélas inachevée.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Orientation_bibliographique_en_botanique_européenne_et_méditerranéenne</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Orientation_bibliographique_en_botanique_europ%C3%A9enne_et_m%C3%A9diterran%C3%A9enne</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>En Méditerranée</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>En Algérie</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Pierre Quézel et Sébastien Santa (préf. Louis Emberger), Nouvelle flore de l’Algérie et des régions désertiques méridionales, Paris, CNRS, 1962-1963, 1170 p. (lire en ligne)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Orientation_bibliographique_en_botanique_européenne_et_méditerranéenne</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Orientation_bibliographique_en_botanique_europ%C3%A9enne_et_m%C3%A9diterran%C3%A9enne</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>En Méditerranée</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>En Italie</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Flora d'Italia, Sandro Pignatti et al, Bologna, Edagricole, 1982. pag. 216  (ISBN 8850624492)
 Flora Italica
 Actaplantarum
-AMINT
-En Espagne
-Flora Ibérica, plantas vasculares de la peninsula ibérica e islas baleares, Santiago Castroviejo rt al. 1993, en Espagnol ; Real Jardín Botánico, Madrid.
+AMINT</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Orientation_bibliographique_en_botanique_européenne_et_méditerranéenne</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Orientation_bibliographique_en_botanique_europ%C3%A9enne_et_m%C3%A9diterran%C3%A9enne</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>En Méditerranée</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>En Espagne</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Flora Ibérica, plantas vasculares de la peninsula ibérica e islas baleares, Santiago Castroviejo rt al. 1993, en Espagnol ; Real Jardín Botánico, Madrid.
 Flore complète couvrant la totalité des régions d'Espagne, du Portugal et des Iles Baléares. C'est une flore abondamment illustrée, avec clé de détermination, description, localisation, habitats et synonymie de chaque espèce. Tous les volumes ne sont pas encore parus.
 Los Arboles y Arbustos de la Peninsula Iberica e Islas Baleares, Especies Silvestres y las Principales Cultivadas, Gines A Lopez Gonzalez, Mundi-Prensa, 2006,  (ISBN 8484762726)
 Flora Briofitica Ibérica, Bryophyta, Bryopsida: Pottiales &amp; Encalyptales 3 volumes, Edited by J Guerra, MJ Cano and RM Ros, 2006, SEB 8460990974
 Site internet : Naturaleza, flora y fauna Cantábrica
-(es) Gabriel Blanca, Baltasar Cabezudo, Miguel Cueto, Concepción Morales Torres et Carlos Salazar, Flora Vascular de Andalucía Oriental, Grenade, Universidades de Almería, Granada, Jaén y Málaga, Granada., 2011, 2e éd., 1751 p. (ISBN 978-84-338-5217-5, 978-84-8240-983-2 et 978-84-8439-582-9, lire en ligne)
-En Égypte
-Flora of Egypt, Volume 1: Azollaceae-Oxalidaceae, Volume 2: Geraniaceae - Boraginaceae, Volume 3: Verbenaceae-Compositae, Volume 4: Monocotyledons(Alismataceae-Orchidaceae), Loutfy Boulos, Al Hadara Publishing
-Série à quatre volumes consacrée à la flore de l'Égypte. Chaque volume contient des clefs aux genres et à l'espèce pour aider l'identification et des citations complètes pour le nom accepté et les synonymes, une description concise, la distribution en Égypte, l'habitat et la distribution générale. Sont présentes également des notes sur les utilisations économiques ainsi qu'une discussion sur la taxonomie de l'espèce.
-En Israël et Palestine
-Flora Palaestina, Part 1 : Equisetaceae to Moringaceae (2 volumes), Part 2 : Platanaceae to Umbelliferae, Part 3 : Ericaceae to Compositae, Part 4 : Alismataceae to Orchidaceae, Michael Zohary, Israel Academy of Sciences and Humanities
+(es) Gabriel Blanca, Baltasar Cabezudo, Miguel Cueto, Concepción Morales Torres et Carlos Salazar, Flora Vascular de Andalucía Oriental, Grenade, Universidades de Almería, Granada, Jaén y Málaga, Granada., 2011, 2e éd., 1751 p. (ISBN 978-84-338-5217-5, 978-84-8240-983-2 et 978-84-8439-582-9, lire en ligne)</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Orientation_bibliographique_en_botanique_européenne_et_méditerranéenne</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Orientation_bibliographique_en_botanique_europ%C3%A9enne_et_m%C3%A9diterran%C3%A9enne</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>En Méditerranée</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>En Égypte</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Flora of Egypt, Volume 1: Azollaceae-Oxalidaceae, Volume 2: Geraniaceae - Boraginaceae, Volume 3: Verbenaceae-Compositae, Volume 4: Monocotyledons(Alismataceae-Orchidaceae), Loutfy Boulos, Al Hadara Publishing
+Série à quatre volumes consacrée à la flore de l'Égypte. Chaque volume contient des clefs aux genres et à l'espèce pour aider l'identification et des citations complètes pour le nom accepté et les synonymes, une description concise, la distribution en Égypte, l'habitat et la distribution générale. Sont présentes également des notes sur les utilisations économiques ainsi qu'une discussion sur la taxonomie de l'espèce.</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Orientation_bibliographique_en_botanique_européenne_et_méditerranéenne</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Orientation_bibliographique_en_botanique_europ%C3%A9enne_et_m%C3%A9diterran%C3%A9enne</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>En Méditerranée</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>En Israël et Palestine</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Flora Palaestina, Part 1 : Equisetaceae to Moringaceae (2 volumes), Part 2 : Platanaceae to Umbelliferae, Part 3 : Ericaceae to Compositae, Part 4 : Alismataceae to Orchidaceae, Michael Zohary, Israel Academy of Sciences and Humanities
 Distribution Atlas of Plants in the Flora Palaestina Area, A. Danin, Israel Academy of Sciences and Humanities, 2004,  (ISBN 9652081671)
 The Bryophyte Flora of Israel and Adjacent Regions, C Clara Heyn and Ilana Hernstadt, Israel Academy of Sciences and Humanities, 2004  (ISBN 9652081523)
-Flore d'Israel
-Au Maroc
-Catalogue des plantes vasculaires du Nord du Maroc, incluant des clés d'identification par B. Valdés, M. Rejdali, A. Achhal el Kadmiri, J. L. Jury et J. M. Montserrat, Consejo superior de investigacione scientíficas, vol. I (lire en ligne)
-Catalogue des plantes vasculaires du Nord du Maroc, incluant des clés d'identification par B. Valdés, M. Rejdali, A. Achhal el Kadmiri, J. L. Jury et J. M. Montserrat, Consejo superior de investigacione scientíficas, vol. II (lire en ligne)
-En Tunisie
-Flore de la Tunisie en 3 tomes :
-Auguste Cuénod, Germaine Pottier-Alapetite (collaboration) et Augustin Labbe (collaboration), Flore analytique et synoptique de la Tunisie : Cryptogames vasculaires, Gymnospermes et Monocotylédones, Tunis, Office de l'expérimentation et de la vulgarisation agricoles (Imprimerie S.E.F.A.N.), 1954, [1]-39, [1]-287 (lire en ligne)
+Flore d'Israel</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Orientation_bibliographique_en_botanique_européenne_et_méditerranéenne</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Orientation_bibliographique_en_botanique_europ%C3%A9enne_et_m%C3%A9diterran%C3%A9enne</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>En Méditerranée</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Au Maroc</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Catalogue des plantes vasculaires du Nord du Maroc, incluant des clés d'identification par B. Valdés, M. Rejdali, A. Achhal el Kadmiri, J. L. Jury et J. M. Montserrat, Consejo superior de investigacione scientíficas, vol. I (lire en ligne)
+Catalogue des plantes vasculaires du Nord du Maroc, incluant des clés d'identification par B. Valdés, M. Rejdali, A. Achhal el Kadmiri, J. L. Jury et J. M. Montserrat, Consejo superior de investigacione scientíficas, vol. II (lire en ligne)</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Orientation_bibliographique_en_botanique_européenne_et_méditerranéenne</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Orientation_bibliographique_en_botanique_europ%C3%A9enne_et_m%C3%A9diterran%C3%A9enne</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>En Méditerranée</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>En Tunisie</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Flore de la Tunisie en 3 tomes :
+Auguste Cuénod, Germaine Pottier-Alapetite (collaboration) et Augustin Labbe (collaboration), Flore analytique et synoptique de la Tunisie : Cryptogames vasculaires, Gymnospermes et Monocotylédones, Tunis, Office de l'expérimentation et de la vulgarisation agricoles (Imprimerie S.E.F.A.N.), 1954, -39, -287 (lire en ligne)
 Germaine Pottier-Alapetite, Flore de la Tunisie : Angiospermes - Dicotylédones, vol. 1 : Apétales - Dialypétales, Tunis, Ministère de l'Enseignement supérieur et de la Recherche scientifique et ministère de l'Agriculture, 1979, 1-651 p. (lire en ligne)
 Germaine Pottier-Alapetite, Flore de la Tunisie : Angiospermes - Dicotylédones, vol. 2 : Gamopétales, Tunis, Ministère de l'Enseignement supérieur et de la Recherche scientifique et ministère de l'Agriculture, 1981, 655-1190 p. (lire en ligne)
-Édouard Le Floc'h, Loutfy Boulos et Errol Véla, Catalogue synonymique commenté de la flore de Tunisie, Tunis, Ministère de l’Environnement et du Développement durable, 2010, 500 p. (lire en ligne)
-En Turquie
-Flora of Turkey and the East Aegean Islands (1965-2000) (11 Volumes), Peter Davis, Edinburgh University Press, 2008  (ISBN 9780748637775)
-Cette série monumentale présente la richesse et la diversité de flore turque dans neuf volumes (1966-85), plus deux suppléments (1988; 2001). C'est une contribution majeure à l'étude de floristique du Sud-ouest de l'Asie et la région de la Méditerranée orientale et représente le travail de la vie de Peter Hadland Davis (1918-1992).
-En Grèce
-Flora hellenica 10 volumes, Arne Strid and Kit Tan, Koeltz Scientific Books
+Édouard Le Floc'h, Loutfy Boulos et Errol Véla, Catalogue synonymique commenté de la flore de Tunisie, Tunis, Ministère de l’Environnement et du Développement durable, 2010, 500 p. (lire en ligne)</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Orientation_bibliographique_en_botanique_européenne_et_méditerranéenne</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Orientation_bibliographique_en_botanique_europ%C3%A9enne_et_m%C3%A9diterran%C3%A9enne</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>En Méditerranée</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>En Turquie</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Flora of Turkey and the East Aegean Islands (1965-2000) (11 Volumes), Peter Davis, Edinburgh University Press, 2008  (ISBN 9780748637775)
+Cette série monumentale présente la richesse et la diversité de flore turque dans neuf volumes (1966-85), plus deux suppléments (1988; 2001). C'est une contribution majeure à l'étude de floristique du Sud-ouest de l'Asie et la région de la Méditerranée orientale et représente le travail de la vie de Peter Hadland Davis (1918-1992).</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Orientation_bibliographique_en_botanique_européenne_et_méditerranéenne</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Orientation_bibliographique_en_botanique_europ%C3%A9enne_et_m%C3%A9diterran%C3%A9enne</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>En Méditerranée</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>En Grèce</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Flora hellenica 10 volumes, Arne Strid and Kit Tan, Koeltz Scientific Books
 Flore complète de la Grèce composée de 10 volumes, proche dans son format de Flora europaea
  Sciences de l’information et bibliothèques   Portail de la botanique   Portail de l’Europe   Portail de la mer Méditerranée                  </t>
         </is>
